--- a/ontologie-vocabolari-controllati/VocabolariControllati/classifications-for-people/gender/gender.xlsx
+++ b/ontologie-vocabolari-controllati/VocabolariControllati/classifications-for-people/gender/gender.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Codice Livello 1</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -36,18 +33,6 @@
     <t>Femmina</t>
   </si>
   <si>
-    <t>Descrizione Livello 1 ITA</t>
-  </si>
-  <si>
-    <t>Descrizione Livello 1 ENG</t>
-  </si>
-  <si>
-    <t>Descrizione Livello 1 DEU</t>
-  </si>
-  <si>
-    <t>Descrizione Livello 1 FRA</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -64,6 +49,21 @@
   </si>
   <si>
     <t>Féminin</t>
+  </si>
+  <si>
+    <t>codice_1 _Llivello</t>
+  </si>
+  <si>
+    <t>label_ITA_1_livello</t>
+  </si>
+  <si>
+    <t>label_ENG_1_livello</t>
+  </si>
+  <si>
+    <t>label_DEU_1_livello</t>
+  </si>
+  <si>
+    <t>label_FRA_1_livello</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -490,53 +490,53 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
